--- a/Fundamentals of artificial intelligence/91ПИ.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMS\Desktop\91PI\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8706E-0F7E-43CB-8CF7-78C9840A9D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC71D86-51EA-49C3-BB38-2D888DA9312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Благов Даниил Николаевич</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Оценка:</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +479,7 @@
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>14</v>
@@ -501,8 +504,11 @@
       <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -535,8 +541,9 @@
         <v>19</v>
       </c>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +561,9 @@
         <f>SUM(B3:K3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,8 +595,11 @@
         <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,8 +627,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -635,8 +649,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,8 +669,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -687,8 +703,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -706,8 +725,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,8 +745,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -750,8 +771,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,8 +791,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -806,8 +829,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -845,8 +871,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,8 +911,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,9 +951,13 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>

--- a/Fundamentals of artificial intelligence/91ПИ.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMS\Desktop\91PI\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC71D86-51EA-49C3-BB38-2D888DA9312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834D51C-DBA9-42FA-9664-CC87F0BCB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,15 +763,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
